--- a/document/01 DataBase Design/Table_specification.xlsx
+++ b/document/01 DataBase Design/Table_specification.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="424">
   <si>
     <t>DBMS</t>
   </si>
@@ -1529,6 +1529,18 @@
   </si>
   <si>
     <t>DelivInstruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigint unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MemberID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7780,7 +7792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -8314,7 +8328,9 @@
         <v>200</v>
       </c>
       <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
+      <c r="G28" s="58" t="s">
+        <v>423</v>
+      </c>
       <c r="H28" s="39"/>
       <c r="I28" s="41"/>
     </row>
@@ -8334,7 +8350,9 @@
         <v>200</v>
       </c>
       <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
+      <c r="G29" s="58" t="s">
+        <v>423</v>
+      </c>
       <c r="H29" s="39"/>
       <c r="I29" s="41"/>
     </row>
@@ -8791,7 +8809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -9085,7 +9105,9 @@
         <v>200</v>
       </c>
       <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+      <c r="G16" s="58" t="s">
+        <v>423</v>
+      </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
     </row>
@@ -10657,7 +10679,7 @@
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
-        <v>33</v>
+        <v>421</v>
       </c>
       <c r="E14" s="56">
         <v>4</v>
@@ -13023,7 +13045,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13201,43 +13223,43 @@
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
       <c r="A11" s="38">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A11:A33" si="0">ROW()-9</f>
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="56">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="s">
+        <v>248</v>
+      </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="38">
-        <f t="shared" ref="A12:A32" si="0">ROW()-9</f>
+        <f>ROW()-9</f>
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>399</v>
+        <v>30</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="56">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F12" s="57"/>
-      <c r="G12" s="58" t="s">
-        <v>248</v>
-      </c>
+      <c r="G12" s="58"/>
       <c r="H12" s="39"/>
       <c r="I12" s="41"/>
     </row>
@@ -13247,14 +13269,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="56">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58"/>
@@ -13267,7 +13289,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -13287,14 +13309,14 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="56">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
@@ -13307,7 +13329,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -13327,14 +13349,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="56">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58"/>
@@ -13347,14 +13369,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="56">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58"/>
@@ -13367,14 +13389,14 @@
         <v>10</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
@@ -13387,14 +13409,14 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58"/>
@@ -13407,14 +13429,14 @@
         <v>12</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58"/>
@@ -13427,14 +13449,14 @@
         <v>13</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="56">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="58"/>
@@ -13527,19 +13549,17 @@
         <v>18</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>249</v>
+        <v>55</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="56">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F27" s="57"/>
-      <c r="G27" s="58" t="s">
-        <v>250</v>
-      </c>
+      <c r="G27" s="58"/>
       <c r="H27" s="39"/>
       <c r="I27" s="41"/>
     </row>
@@ -13549,18 +13569,18 @@
         <v>19</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="56" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="E28" s="56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="58" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="41"/>
@@ -13571,17 +13591,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="E29" s="56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
+      <c r="G29" s="58" t="s">
+        <v>316</v>
+      </c>
       <c r="H29" s="39"/>
       <c r="I29" s="41"/>
     </row>
@@ -13591,14 +13613,14 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>418</v>
+        <v>61</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
-        <v>419</v>
+        <v>26</v>
       </c>
       <c r="E30" s="56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="58"/>
@@ -13611,19 +13633,17 @@
         <v>22</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="56" t="s">
-        <v>26</v>
+        <v>419</v>
       </c>
       <c r="E31" s="56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F31" s="57"/>
-      <c r="G31" s="58" t="s">
-        <v>251</v>
-      </c>
+      <c r="G31" s="58"/>
       <c r="H31" s="39"/>
       <c r="I31" s="41"/>
     </row>
@@ -13633,82 +13653,104 @@
         <v>23</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="56">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="58" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A33" s="42">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A33" s="38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="56">
+        <v>10</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A34" s="42">
         <f>ROW()-9</f>
-        <v>24</v>
-      </c>
-      <c r="B33" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="59" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E34" s="59">
         <v>16</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A35" s="48" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A36" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A36" s="62" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A37" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="50" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E37" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/01 DataBase Design/Table_specification.xlsx
+++ b/document/01 DataBase Design/Table_specification.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="427">
   <si>
     <t>DBMS</t>
   </si>
@@ -1541,6 +1541,18 @@
   </si>
   <si>
     <t>file name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MinUnit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tax1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tax2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7792,9 +7804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -8807,11 +8817,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -9007,7 +9015,7 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="38">
-        <f t="shared" ref="A12:A20" si="0">ROW()-9</f>
+        <f t="shared" ref="A12:A21" si="0">ROW()-9</f>
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -9179,104 +9187,124 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E20" s="56">
         <v>1</v>
       </c>
       <c r="F20" s="57"/>
-      <c r="G20" s="58" t="s">
-        <v>251</v>
-      </c>
+      <c r="G20" s="58"/>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1">
       <c r="A21" s="38">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="56">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A22" s="42">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A22" s="38">
         <f>ROW()-9</f>
         <v>13</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="56">
+        <v>10</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A23" s="42">
+        <f>ROW()-9</f>
+        <v>14</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="59" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E23" s="59">
         <v>16</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A24" s="48" t="s">
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A25" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A25" s="62" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A26" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="50" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E26" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10784,7 +10812,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10818,7 +10846,7 @@
         <v>180</v>
       </c>
       <c r="I1" s="7">
-        <v>41238</v>
+        <v>41267</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
@@ -10840,7 +10868,9 @@
       <c r="H2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -10980,7 +11010,7 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="38">
-        <f t="shared" ref="A12:A32" si="0">ROW()-9</f>
+        <f t="shared" ref="A12:A34" si="0">ROW()-9</f>
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -11326,18 +11356,18 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E29" s="56">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="58" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="41"/>
@@ -11348,18 +11378,18 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E30" s="56">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="58" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="41"/>
@@ -11370,80 +11400,124 @@
         <v>22</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" s="56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
+      <c r="G31" s="58" t="s">
+        <v>380</v>
+      </c>
       <c r="H31" s="39"/>
       <c r="I31" s="41"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A32" s="42">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="56">
+        <v>20</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="41"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A33" s="38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="56">
+        <v>10</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A34" s="42">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="59" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E34" s="59">
         <v>16</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A34" s="48" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A36" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A35" s="62" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A37" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="50" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E37" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
